--- a/adsphd-master/chapters/weed/image/Figures.xlsx
+++ b/adsphd-master/chapters/weed/image/Figures.xlsx
@@ -2252,14 +2252,15 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="281328256"/>
-        <c:axId val="263545984"/>
+        <c:axId val="86104704"/>
+        <c:axId val="86115456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="281328256"/>
+        <c:axId val="86104704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="105"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -2273,7 +2274,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-NL"/>
-                  <a:t>Time </a:t>
+                  <a:t>time </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2282,7 +2283,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.52162569444444795"/>
+              <c:x val="0.78611991108188595"/>
               <c:y val="0.87001777777777778"/>
             </c:manualLayout>
           </c:layout>
@@ -2290,44 +2291,39 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="263545984"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow" w="sm" len="med"/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="86115456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="263545984"/>
+        <c:axId val="86115456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-NL"/>
-                  <a:t>Green</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="nl-NL" baseline="0"/>
-                  <a:t> canopy cover (%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="nl-NL"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="281328256"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:tailEnd type="arrow" w="sm" len="med"/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="86104704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
@@ -2342,9 +2338,10 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -2359,7 +2356,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12340972222222225"/>
+          <c:x val="0.1234097222222223"/>
           <c:y val="4.3056666666666674E-2"/>
           <c:w val="0.8166069444444447"/>
           <c:h val="0.81546777777777757"/>
@@ -2642,8 +2639,8 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="265448832"/>
-        <c:axId val="265475584"/>
+        <c:axId val="81699968"/>
+        <c:axId val="81701888"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -8298,11 +8295,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="265448832"/>
-        <c:axId val="265475584"/>
+        <c:axId val="81699968"/>
+        <c:axId val="81701888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="265448832"/>
+        <c:axId val="81699968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -8334,13 +8331,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265475584"/>
+        <c:crossAx val="81701888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265475584"/>
+        <c:axId val="81701888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -8372,7 +8369,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265448832"/>
+        <c:crossAx val="81699968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
@@ -8388,7 +8385,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000577" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000577" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8405,10 +8402,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14980208333333339"/>
-          <c:y val="5.0112222222222273E-2"/>
+          <c:x val="0.14980208333333347"/>
+          <c:y val="5.0112222222222322E-2"/>
           <c:w val="0.79021458333333339"/>
-          <c:h val="0.80841222222222198"/>
+          <c:h val="0.80841222222222153"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -9771,8 +9768,8 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="265577984"/>
-        <c:axId val="265592832"/>
+        <c:axId val="81742848"/>
+        <c:axId val="81765888"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -12134,11 +12131,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="265577984"/>
-        <c:axId val="265592832"/>
+        <c:axId val="81742848"/>
+        <c:axId val="81765888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="265577984"/>
+        <c:axId val="81742848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -12164,13 +12161,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265592832"/>
+        <c:crossAx val="81765888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265592832"/>
+        <c:axId val="81765888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -12206,13 +12203,13 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="4.2138888888888894E-3"/>
-              <c:y val="0.19906111111111116"/>
+              <c:y val="0.19906111111111124"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265577984"/>
+        <c:crossAx val="81742848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
@@ -12228,7 +12225,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000466" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000466" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000005" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000005" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12245,7 +12242,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14942708333333349"/>
+          <c:x val="0.14942708333333363"/>
           <c:y val="4.3056666666666674E-2"/>
           <c:w val="0.79058958333333329"/>
           <c:h val="0.81546777777777757"/>
@@ -14931,8 +14928,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="265627136"/>
-        <c:axId val="265641984"/>
+        <c:axId val="81787904"/>
+        <c:axId val="81802752"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -15029,11 +15026,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="265627136"/>
-        <c:axId val="265641984"/>
+        <c:axId val="81787904"/>
+        <c:axId val="81802752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="265627136"/>
+        <c:axId val="81787904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -15066,13 +15063,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265641984"/>
+        <c:crossAx val="81802752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265641984"/>
+        <c:axId val="81802752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -15094,7 +15091,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="nl-NL" sz="900" baseline="0"/>
-                  <a:t> aboveground biomass (t/ha)</a:t>
+                  <a:t> above-ground biomass  (t/ha)</a:t>
                 </a:r>
                 <a:endParaRPr lang="nl-NL" sz="900"/>
               </a:p>
@@ -15111,7 +15108,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265627136"/>
+        <c:crossAx val="81787904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="14"/>
@@ -15127,7 +15124,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000466" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000466" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000005" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000005" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15148,7 +15145,7 @@
           <c:x val="0.14091150793650795"/>
           <c:y val="5.5953174603174602E-2"/>
           <c:w val="0.82498253968253954"/>
-          <c:h val="0.79156269841269566"/>
+          <c:h val="0.79156269841269533"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -18394,11 +18391,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="264554368"/>
-        <c:axId val="264564736"/>
+        <c:axId val="258611072"/>
+        <c:axId val="262090752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="264554368"/>
+        <c:axId val="258611072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -18411,33 +18408,34 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1050"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL"/>
+                  <a:rPr lang="nl-NL" sz="1050"/>
                   <a:t>Relative</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="nl-NL" baseline="0"/>
+                  <a:rPr lang="nl-NL" sz="1050" baseline="0"/>
                   <a:t> weed cover (-)</a:t>
                 </a:r>
-                <a:endParaRPr lang="nl-NL"/>
+                <a:endParaRPr lang="nl-NL" sz="1050"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264564736"/>
+        <c:crossAx val="262090752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264564736"/>
+        <c:axId val="262090752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.75000000000000311"/>
+          <c:min val="0.75000000000000344"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -18447,19 +18445,20 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1050"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="nl-NL"/>
+                  <a:rPr lang="nl-NL" sz="1050"/>
                   <a:t>Maximum total vegetation canopy cover (-)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264554368"/>
+        <c:crossAx val="258611072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18473,7 +18472,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -18828,8 +18827,8 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="264801280"/>
-        <c:axId val="264873088"/>
+        <c:axId val="80917248"/>
+        <c:axId val="80919168"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -19836,11 +19835,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="264801280"/>
-        <c:axId val="264873088"/>
+        <c:axId val="80917248"/>
+        <c:axId val="80919168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="264801280"/>
+        <c:axId val="80917248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -19864,16 +19863,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264873088"/>
+        <c:crossAx val="80919168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264873088"/>
+        <c:axId val="80919168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -19895,7 +19895,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="nl-NL" sz="900" baseline="0"/>
-                  <a:t> aboveground biomass (t/ha)</a:t>
+                  <a:t> above-ground biomass (t/ha)</a:t>
                 </a:r>
                 <a:endParaRPr lang="nl-NL" sz="900"/>
               </a:p>
@@ -19912,7 +19912,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264801280"/>
+        <c:crossAx val="80917248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="14"/>
@@ -19928,7 +19928,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000766" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000766" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000799" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000799" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -19944,7 +19944,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12781944444444501"/>
+          <c:x val="0.12781944444444512"/>
           <c:y val="4.3056666666666674E-2"/>
           <c:w val="0.81219722222222224"/>
           <c:h val="0.81546777777777757"/>
@@ -20306,8 +20306,8 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="264911104"/>
-        <c:axId val="264925568"/>
+        <c:axId val="80965632"/>
+        <c:axId val="80967552"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -22745,11 +22745,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="264911104"/>
-        <c:axId val="264925568"/>
+        <c:axId val="80965632"/>
+        <c:axId val="80967552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="264911104"/>
+        <c:axId val="80965632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -22777,16 +22777,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264925568"/>
+        <c:crossAx val="80967552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264925568"/>
+        <c:axId val="80967552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -22821,14 +22822,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.1852777777777905E-2"/>
-              <c:y val="0.21588944444444519"/>
+              <c:x val="2.1852777777777933E-2"/>
+              <c:y val="0.21588944444444533"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264911104"/>
+        <c:crossAx val="80965632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
@@ -22845,7 +22846,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000722" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000722" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000755" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000755" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -23216,8 +23217,8 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="264585216"/>
-        <c:axId val="264587136"/>
+        <c:axId val="81036800"/>
+        <c:axId val="81038720"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -24773,11 +24774,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="264585216"/>
-        <c:axId val="264587136"/>
+        <c:axId val="81036800"/>
+        <c:axId val="81038720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="264585216"/>
+        <c:axId val="81036800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -24800,16 +24801,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264587136"/>
+        <c:crossAx val="81038720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264587136"/>
+        <c:axId val="81038720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -24845,13 +24847,13 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="2.6262500000000001E-2"/>
-              <c:y val="0.21588944444444519"/>
+              <c:y val="0.21588944444444533"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264585216"/>
+        <c:crossAx val="81036800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="100"/>
@@ -24868,7 +24870,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000655" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000655" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000688" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000688" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -25168,8 +25170,8 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="265028352"/>
-        <c:axId val="265030272"/>
+        <c:axId val="81361152"/>
+        <c:axId val="81383808"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -26224,11 +26226,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="265028352"/>
-        <c:axId val="265030272"/>
+        <c:axId val="81361152"/>
+        <c:axId val="81383808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="265028352"/>
+        <c:axId val="81361152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -26256,20 +26258,20 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.36368809523809692"/>
+              <c:x val="0.36368809523809714"/>
               <c:y val="0.88876888888888894"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265030272"/>
+        <c:crossAx val="81383808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="90"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265030272"/>
+        <c:axId val="81383808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -26291,7 +26293,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="nl-NL" sz="900" baseline="0"/>
-                  <a:t> aboveground biomass (t/ha)</a:t>
+                  <a:t> above-ground biomass (t/ha)</a:t>
                 </a:r>
                 <a:endParaRPr lang="nl-NL" sz="900"/>
               </a:p>
@@ -26308,7 +26310,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265028352"/>
+        <c:crossAx val="81361152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="8"/>
@@ -26324,7 +26326,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000677" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000677" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000711" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000711" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -26809,11 +26811,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="265185920"/>
-        <c:axId val="265196288"/>
+        <c:axId val="81408384"/>
+        <c:axId val="81410304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="265185920"/>
+        <c:axId val="81408384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -26840,16 +26842,17 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265196288"/>
+        <c:crossAx val="81410304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265196288"/>
+        <c:axId val="81410304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -26872,10 +26875,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265185920"/>
+        <c:crossAx val="81408384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3"/>
@@ -26890,7 +26894,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -26906,7 +26910,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12297731481481473"/>
+          <c:x val="0.12297731481481466"/>
           <c:y val="3.717685185185185E-2"/>
           <c:w val="0.81194999999999995"/>
           <c:h val="0.83904722222222261"/>
@@ -27346,11 +27350,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="265138944"/>
-        <c:axId val="265140864"/>
+        <c:axId val="81447168"/>
+        <c:axId val="81449344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="265138944"/>
+        <c:axId val="81447168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -27388,13 +27392,13 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265140864"/>
+        <c:crossAx val="81449344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265140864"/>
+        <c:axId val="81449344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -27417,10 +27421,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265138944"/>
+        <c:crossAx val="81447168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -27435,7 +27440,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -27452,9 +27457,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12316219554242927"/>
+          <c:x val="0.12316219554242933"/>
           <c:y val="4.3056666666666674E-2"/>
-          <c:w val="0.81685445029668602"/>
+          <c:w val="0.81685445029668635"/>
           <c:h val="0.81546777777777757"/>
         </c:manualLayout>
       </c:layout>
@@ -27559,8 +27564,8 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="265254016"/>
-        <c:axId val="265255936"/>
+        <c:axId val="81549952"/>
+        <c:axId val="81560320"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -30130,11 +30135,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="265254016"/>
-        <c:axId val="265255936"/>
+        <c:axId val="81549952"/>
+        <c:axId val="81560320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="265254016"/>
+        <c:axId val="81549952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -30161,13 +30166,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265255936"/>
+        <c:crossAx val="81560320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265255936"/>
+        <c:axId val="81560320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -30189,7 +30194,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="nl-NL" sz="900" baseline="0"/>
-                  <a:t> aboveground biomass (t/ha)</a:t>
+                  <a:t> above-ground biomass (t/ha)</a:t>
                 </a:r>
                 <a:endParaRPr lang="nl-NL" sz="900"/>
               </a:p>
@@ -30199,7 +30204,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265254016"/>
+        <c:crossAx val="81549952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="14"/>
@@ -30215,7 +30220,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000644" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000644" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -30226,547 +30231,497 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>174171</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>441600</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>55158</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>85500</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1189</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>595314</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>53576</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Group 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="304801" y="1334689"/>
-          <a:ext cx="290513" cy="242887"/>
+          <a:off x="174171" y="0"/>
+          <a:ext cx="2928987" cy="1800000"/>
+          <a:chOff x="174171" y="0"/>
+          <a:chExt cx="2928987" cy="1800000"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="2" name="Chart 1"/>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="174171" y="0"/>
+          <a:ext cx="2928987" cy="1800000"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="527959" y="1334689"/>
+            <a:ext cx="290513" cy="242887"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="nl-NL" sz="900"/>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>385763</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>69058</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1604963" y="504825"/>
-          <a:ext cx="292895" cy="242887"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="900"/>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1692050" y="493940"/>
+            <a:ext cx="292895" cy="242887"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="nl-NL" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>②</a:t>
-          </a:r>
-          <a:endParaRPr lang="nl-NL" sz="600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>603649</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>50005</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>286943</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>102392</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2432449" y="812005"/>
-          <a:ext cx="292894" cy="242887"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL" sz="600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 4"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2524978" y="822891"/>
+            <a:ext cx="292894" cy="242887"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="nl-NL" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>③</a:t>
-          </a:r>
-          <a:endParaRPr lang="nl-NL" sz="300"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5957</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>113109</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>577457</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>172641</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="615557" y="113109"/>
-          <a:ext cx="571500" cy="631032"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>③</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL" sz="300"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="838715" y="85894"/>
+            <a:ext cx="571500" cy="631032"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="nl-NL" sz="1000"/>
-            <a:t>CC</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="nl-NL" sz="1000" baseline="-25000"/>
-            <a:t>TOT</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="nl-NL" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CC</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="nl-NL" sz="1000" baseline="-25000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>WF</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="nl-NL" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CC</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="nl-NL" sz="1000" baseline="-25000">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>W</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="nl-NL" sz="900"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="nl-NL" sz="900" baseline="-25000"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="nl-NL" sz="900" baseline="-25000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>65484</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>113109</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Connector 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="990600" y="255984"/>
-          <a:ext cx="371476" cy="47625"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>360759</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>21431</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>122635</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>69056</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Connector 7"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="970359" y="402431"/>
-          <a:ext cx="371476" cy="47625"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>336189</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>98065</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28249</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Connector 8"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="946655" y="552124"/>
-          <a:ext cx="372342" cy="47625"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1000"/>
+              <a:t>CC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1000" baseline="-25000"/>
+              <a:t>TOT</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>CC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1000" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>WF</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>CC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1000" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>W</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL" sz="900"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="nl-NL" sz="900" baseline="-25000"/>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="nl-NL" sz="900" baseline="-25000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="Straight Connector 6"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="1213758" y="228770"/>
+            <a:ext cx="375556" cy="27044"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="8" name="Straight Connector 7"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="1193517" y="375217"/>
+            <a:ext cx="406403" cy="31614"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="Straight Connector 8"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="1168947" y="524910"/>
+            <a:ext cx="393153" cy="24819"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.05443</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.11445</cdr:x>
+      <cdr:y>0.86591</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="97974"/>
+          <a:ext cx="335719" cy="1460662"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" vert="vert270" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1000" b="1"/>
+            <a:t>Green canopy cover</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -30801,7 +30756,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -31277,7 +31232,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -31328,14 +31283,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8989</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>449241</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>8240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>450589</xdr:colOff>
+      <xdr:colOff>282706</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>93740</xdr:rowOff>
     </xdr:to>
@@ -31358,14 +31313,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7571</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447823</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>449171</xdr:colOff>
+      <xdr:colOff>281288</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>85500</xdr:rowOff>
     </xdr:to>
@@ -31449,7 +31404,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -31563,7 +31518,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -31627,14 +31582,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>454268</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>441600</xdr:colOff>
+      <xdr:colOff>287733</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>85500</xdr:rowOff>
     </xdr:to>
@@ -31657,14 +31612,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4879</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>459147</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>6569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>446479</xdr:colOff>
+      <xdr:colOff>292612</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>92069</xdr:rowOff>
     </xdr:to>
@@ -31737,7 +31692,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -31851,6 +31806,136 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5553076" y="7553325"/>
+          <a:ext cx="1647824" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Underestimation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562101" y="7553325"/>
+          <a:ext cx="1647824" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Overestimation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -51288,7 +51373,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51303,7 +51388,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51317,8 +51402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51335,8 +51420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B12:N42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51717,8 +51802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -51733,7 +51818,7 @@
   <dimension ref="C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
